--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J2">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.452293666666667</v>
+        <v>1.424719</v>
       </c>
       <c r="N2">
-        <v>4.356881</v>
+        <v>4.274157</v>
       </c>
       <c r="O2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="P2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="Q2">
-        <v>0.0982166842851111</v>
+        <v>0.004873013886333332</v>
       </c>
       <c r="R2">
-        <v>0.883950158566</v>
+        <v>0.04385712497699999</v>
       </c>
       <c r="S2">
-        <v>0.004971995435422916</v>
+        <v>0.0002635013573251978</v>
       </c>
       <c r="T2">
-        <v>0.004971995435422917</v>
+        <v>0.0002635013573251978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J3">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>32.221955</v>
       </c>
       <c r="O3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="P3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="Q3">
-        <v>0.7263759513477777</v>
+        <v>0.03673660891722222</v>
       </c>
       <c r="R3">
-        <v>6.53738356213</v>
+        <v>0.330629480255</v>
       </c>
       <c r="S3">
-        <v>0.03677112438471525</v>
+        <v>0.001986480346456961</v>
       </c>
       <c r="T3">
-        <v>0.03677112438471526</v>
+        <v>0.001986480346456961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H4">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I4">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J4">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.027161333333333</v>
+        <v>7.027161333333335</v>
       </c>
       <c r="N4">
         <v>21.081484</v>
       </c>
       <c r="O4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="P4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
       <c r="Q4">
-        <v>0.4752375514248888</v>
+        <v>0.02403523414711111</v>
       </c>
       <c r="R4">
-        <v>4.277137962824</v>
+        <v>0.216317107324</v>
       </c>
       <c r="S4">
-        <v>0.0240578161808737</v>
+        <v>0.001299671408520895</v>
       </c>
       <c r="T4">
-        <v>0.02405781618087371</v>
+        <v>0.001299671408520895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.129417</v>
       </c>
       <c r="I5">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J5">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.452293666666667</v>
+        <v>1.424719</v>
       </c>
       <c r="N5">
-        <v>4.356881</v>
+        <v>4.274157</v>
       </c>
       <c r="O5">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="P5">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="Q5">
-        <v>0.5467483853752223</v>
+        <v>0.5363672862743333</v>
       </c>
       <c r="R5">
-        <v>4.920735468377001</v>
+        <v>4.827305576469</v>
       </c>
       <c r="S5">
-        <v>0.02767788890652408</v>
+        <v>0.0290033049884176</v>
       </c>
       <c r="T5">
-        <v>0.02767788890652409</v>
+        <v>0.02900330498841759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.129417</v>
       </c>
       <c r="I6">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J6">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>32.221955</v>
       </c>
       <c r="O6">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="P6">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="Q6">
         <v>4.043558194470556</v>
@@ -818,10 +818,10 @@
         <v>36.392023750235</v>
       </c>
       <c r="S6">
-        <v>0.2046959030648342</v>
+        <v>0.2186497099166146</v>
       </c>
       <c r="T6">
-        <v>0.2046959030648343</v>
+        <v>0.2186497099166145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.129417</v>
       </c>
       <c r="I7">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J7">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.027161333333333</v>
+        <v>7.027161333333335</v>
       </c>
       <c r="N7">
         <v>21.081484</v>
       </c>
       <c r="O7">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="P7">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
       <c r="Q7">
         <v>2.645531823869778</v>
       </c>
       <c r="R7">
-        <v>23.809786414828</v>
+        <v>23.80978641482801</v>
       </c>
       <c r="S7">
-        <v>0.1339240094316702</v>
+        <v>0.1430534044632535</v>
       </c>
       <c r="T7">
-        <v>0.1339240094316703</v>
+        <v>0.1430534044632534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.751027</v>
       </c>
       <c r="I8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.452293666666667</v>
+        <v>1.424719</v>
       </c>
       <c r="N8">
-        <v>4.356881</v>
+        <v>4.274157</v>
       </c>
       <c r="O8">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="P8">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="Q8">
-        <v>0.8476684740874446</v>
+        <v>0.8315738121376667</v>
       </c>
       <c r="R8">
-        <v>7.629016266787001</v>
+        <v>7.484164309239</v>
       </c>
       <c r="S8">
-        <v>0.04291128146497188</v>
+        <v>0.04496618177692908</v>
       </c>
       <c r="T8">
-        <v>0.04291128146497188</v>
+        <v>0.04496618177692907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.751027</v>
       </c>
       <c r="I9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>32.221955</v>
       </c>
       <c r="O9">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="P9">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="Q9">
         <v>6.269057021976112</v>
@@ -1004,10 +1004,10 @@
         <v>56.421513197785</v>
       </c>
       <c r="S9">
-        <v>0.3173567008960442</v>
+        <v>0.3389904221436014</v>
       </c>
       <c r="T9">
-        <v>0.3173567008960442</v>
+        <v>0.3389904221436014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.751027</v>
       </c>
       <c r="I10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.027161333333333</v>
+        <v>7.027161333333335</v>
       </c>
       <c r="N10">
         <v>21.081484</v>
       </c>
       <c r="O10">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="P10">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
       <c r="Q10">
         <v>4.101583076007556</v>
       </c>
       <c r="R10">
-        <v>36.914247684068</v>
+        <v>36.91424768406801</v>
       </c>
       <c r="S10">
-        <v>0.2076332802349435</v>
+        <v>0.221787323598881</v>
       </c>
       <c r="T10">
-        <v>0.2076332802349435</v>
+        <v>0.2217873235988809</v>
       </c>
     </row>
   </sheetData>
